--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/15_Bayburt_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/15_Bayburt_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50E39E77-769A-40C3-98B0-1D7303A81BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5B6357D-0B4B-4931-9FC0-B34481A804AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B6AFA8A3-4553-4413-BEA4-FCF0E4122D7D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F0898577-5685-4880-BBE7-ED5090BCEAEF}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{DAE88B13-7B6A-4168-8E7A-A7763D60948C}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{020A30B5-8B53-49E4-B5C6-305619FA32B4}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{88CAAEDA-F0F1-4E32-9896-2EF314430DF8}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{16EBCA88-AD33-4F7A-BD69-BB138DD183B3}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{BA0BCC22-3105-4385-94DC-47996D781BFF}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{5EC07F19-BF8D-44E9-A0AF-69870D09B06B}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{5C2FFAE1-8E4B-4C90-8A25-C14E25076032}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{849B00B1-4B95-4E31-92F5-38419E1FF6A8}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9243D44E-B5CF-40CC-8A4D-616B7C9A8292}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D09626E6-008C-4C01-A35D-A11D3E974163}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2401,18 +2401,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{63969FA3-D286-475C-86D6-A7E2F77E1F6F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{1FAE7A0D-2BF6-4C79-AB50-7FE763CC36A3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F69656A4-7320-4CBB-9EDD-73A1141B9390}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{A8287B1B-FA6D-457B-9CAE-E0B0CDD300BE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{EA39E1C5-459C-4004-8ED8-F6CE89EF6887}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E5386F6C-62D4-4E7C-86B0-4EE7CBC2F032}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D1116802-2CFB-4D8C-A456-1DB82E36DBFD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{30FF7006-7C8C-4D56-9F70-EDBA7648A7E1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{4BD61AB1-4E55-4F43-A7DA-7DA5E68AF889}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{7A4030EA-01FB-47BF-9E22-2B60BE798B0A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E1612063-E5E1-4E6A-ABF6-E5CBCED66C49}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{165EB599-2C3A-4037-A505-470ED51BE8C4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{00DA5428-7241-4420-A68A-0FA6BC5F607B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{9C0AC94D-2CC1-44CC-B260-FC71FEC0E6F4}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{80E2F7D3-D50D-42C8-B89E-612627AF19BB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{7231FDB5-A515-41F6-B499-78D2B6835B1D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B27C8323-8D6F-4649-9DA7-73D1A6C1C3E2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{7D38FE15-E25A-447F-A1A2-AA39DEF04E28}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4667EEB7-B23B-4715-940A-7EFC0BD0B8EB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{56DA22D6-05E9-42C7-BEB5-2E4FEDEF46C0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{5DE20651-FE42-4DF0-A0A5-036E68D07E94}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{3928E10C-9E42-453A-A1B9-FCF6394B4F06}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{95EC9919-4A45-401E-A19D-6BB1A43A091B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{8A4D6A80-3CB8-4C5D-8E1B-C467E147F6B0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2425,7 +2425,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B51ED281-6202-479D-A615-3388B81FA4B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C751C97-453B-444D-9B5F-ED409A1822E8}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3566,18 +3566,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{3D4018B6-36F3-4A62-953B-5A110C609120}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{08123469-6AE7-490F-9584-7577DBB9D9BE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{820E4DAE-3028-499C-883D-803D331F34F2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{2A10A3BA-D4D0-43C9-BCB6-FE57551278A7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{190E49BD-E16C-4887-AAE9-0DA109C2CC6D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D616C525-D9AE-4B60-B712-77B54B96F42E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7AB9C527-8F07-4423-8522-DABD29A43D99}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{15D0BAA5-EE9E-4617-9F55-90A158B1EE37}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{23A61057-746E-4634-8A93-1C1439EFFE57}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{CDE1B440-008E-40CA-8026-73A60896A313}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{7170ED27-25E2-4D76-8C9E-D6356C77AA52}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{1D23ABAF-F844-470B-B671-2584784F7AEB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{2010B957-B4E2-4BC2-924E-23E9EF58C031}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{F98DD4D3-E098-422B-8967-EBB2A18493B2}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{182C6641-E340-4757-A633-DAD3CE347C80}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{6449E5B1-AFFC-4A44-8531-1BF7EC6C20BE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{58D5AD10-3884-4AE9-A3EE-540B9CC9717F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F8285167-D7D6-45B7-A2F8-3542C713B208}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D693F9E0-9FC4-4EAC-A01A-BF28E428907D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{EFFB0988-20A6-4EC3-A23E-9355812ABA37}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{0BB58528-C615-4E1A-ABE7-153D54AE2622}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{5DF98D83-1256-4370-9EB3-7426101F3663}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{13CF3153-5942-40FA-8509-69D33DD03FB7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{6E76A412-834E-48B7-A8C1-F135AA630DA7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3590,7 +3590,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13EED13C-7713-4ADC-8289-59936BD5176D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF93FA95-DA61-42B4-B269-81FD129A11E0}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4727,18 +4727,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{9963CC96-BFFA-484E-AFA8-2952A745CAA4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{1A624E1E-07C1-4321-B877-906966B7E85D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{6D50536E-C3E9-46CA-A55D-AD0201CC83FF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E969B569-DAF2-4DBB-AC2B-B62EF39EF10B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{0B6650E2-A894-4B56-9971-F3C70BEBDA54}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{94882025-28D3-4E1C-9583-22A6EDAF08BC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{E0ADCF51-AC9B-4765-A376-7BD2F7C9BE4F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{7B4D8A2C-312D-49ED-A125-2C7C3CC61561}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{9F7772D7-60D0-44B2-BF62-091B049D5A22}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{0573AD30-5F1D-42CA-B169-6DD1F628A4A9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{34B69AA9-6AEF-4D92-9D0F-C59068A8B6BD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F1AD1F94-2192-470F-B862-CE61C454B70E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{436770CB-E02D-43E2-8637-B539D31E9290}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A2B1C313-51E9-43B8-8B36-DF58C86E58F6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{759AD4ED-AB8D-4FFF-AC71-89C32612C259}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{49FB9028-3EB0-404F-BF15-07A3607DB61F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{FAB82CCD-8E9A-4D0C-A0E0-C237E6B1723F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{164CA9D6-9107-4A14-9F1D-32C0BF108149}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{A5ECD116-5E3D-4DA9-8977-98C381F27B60}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{E07386E7-9031-4208-AFD6-8FDC231BEC7A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{95CF0A13-F53F-46CD-9317-3E1C29B20960}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{76BA41B4-182F-4377-B8A2-3F707CB6CD9A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{BF3CC7FE-BCD7-4968-A4D5-31ACA1C966F6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{9A7FB01E-860C-4D79-BFB9-9928A4058607}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4751,7 +4751,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5642FAA8-12A2-4E46-89C9-E3E884CE2A4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD2E8974-49D6-4EE8-B50E-8C589D914CB9}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5874,18 +5874,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{63164A42-BBE2-4D78-9B2D-A56C4CAB35F7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{9A36A107-1766-4E8D-A862-201E9BD27990}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{BC629129-019E-4E32-9463-636FC19B9A67}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D39BC3CD-A8AC-48A0-9E87-A5545F4ACAAE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{534EF459-C1BB-4A3F-A581-52017133126B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{DE153FC4-7E67-4FD5-99C5-ADCD27EE2706}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4D545921-0E9C-407E-BF6B-50D398B29FFA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{C1A13555-93BF-434C-B069-B8E6581CB121}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{0B157D65-9B86-4076-8071-04C1192B6EF0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{4BFEC3AB-4348-424C-B314-1FDF897BA677}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{1D266D14-54A6-4238-B265-8DE2A33B2557}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5BBE2FFD-BB1D-4016-B5CA-25AA34F0446A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{4AE74F0B-7905-465B-951E-B272206F5B01}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{3049F279-F4EE-4154-84CF-2613E128530D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{251BE5A7-85C9-404E-A51F-1DC58B49C280}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{DC055AAD-0A4C-468F-A7C6-1557072C4DCA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{654A9F87-A6AC-40B5-9EBE-A7D5E85A39E7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{475DEF7E-495F-4110-A9FB-ED4D8E27345A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{76BD8745-6126-4DD6-8F3C-CFCB90A7BBA8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{E8F3724E-E227-4F1D-BD94-46D058B7C712}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{69F8CD91-C948-440A-9280-346812830EFA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{3B7C4444-E92A-45FF-9B16-9003BBDB1782}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B7073AE5-A2F4-441B-9239-100B9FE54322}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{CC476051-8BF5-4335-84B5-48C07AE19573}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5898,7 +5898,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED59077C-A0A1-4FB9-843A-45EB8E6C85CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F26361F-7B25-47A3-B578-C9FBC77871A2}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7061,18 +7061,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{DF409C5C-907E-44E0-B59C-1897B6465114}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{38A36809-F7C9-4C4E-9E39-E3BD208BA62F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{C4C10167-9717-456E-9E12-EE260285BD20}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B03DD22F-90EF-4FD7-AE47-C0B467EB1C25}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{E970C4AB-31DC-42C6-86ED-02B58600F25B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{2AF35593-ADA5-4333-AB8C-16F8D1764854}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C3A42FB7-51EB-4ADA-8E8B-700BBB6AD442}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{3B07E7DC-FBB5-40E9-B8CF-D013D1E36BAC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D38DCCA1-1F89-49C9-8A4C-A83E8D0FD268}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{0711F706-3708-4E8B-A516-725604A83380}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B6F32C12-0096-4A69-976D-C0B4FE408411}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{00397BA0-277E-4883-8881-C3505D29EF95}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{C73FFF5D-8EF2-4ACF-8087-AFC5F3863BF8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{BF12561A-03C4-4936-A23F-CB0C886E8FB9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{A71C9A12-8696-49D4-8AAC-020A8B532D23}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{4C0CDB5A-FDBA-40C1-8448-616F27687060}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{3785F3AB-69BF-45F6-BC43-5210466AD727}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{A8867E93-211C-4294-8A08-A8C7C7BE7DF2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4640805E-611D-4FE3-A72F-D60F6191FF01}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{82C61EB2-2609-4857-89C2-BE16A7E43770}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B678474F-430D-41AD-BEE7-BDAA6BD9C128}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{922A3C4A-C977-49EC-91FB-4C08F09C4228}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{3A9519CF-1711-4EB4-A813-FAF908950846}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F1D86AD2-61FB-4B90-A020-34DAFF530050}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7085,7 +7085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE86C0E3-4838-481D-B5D6-766CA152B43C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C210F9-F769-474D-8800-4BDF788C1C30}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8250,18 +8250,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{69186CCC-0AA7-4A88-911E-0CD965EEFA26}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E11536F7-546E-4473-BCBB-9ACFED790734}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B5671F0C-31AD-4194-B815-B275B55A2590}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E69AE406-9D02-410B-8E35-9FD9D97BD417}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{FE7C01F7-BE41-4CF4-8FD5-8A2D1E498B44}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{EBC611FC-EAF3-49BC-9D9B-DCC69F842738}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7D2B3D02-39F5-405B-818E-171365FC4BE8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{90111862-3EEF-4841-8DE7-5418CA46ED3E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E90DD6B4-F65D-4483-A841-6E4CA0AAE094}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{B3793F7B-A617-4553-A321-BFA599A902B4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{89D05456-9105-4AC6-9768-2D717C362FBB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{EC368359-FC1C-4FA3-8CA9-A8261FA780EE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F9BB4254-3D81-4624-8222-4358DC24531D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{8A027810-7AFE-4595-9F1C-B6FA46BCD4A8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{69AF4176-60B3-4166-9939-96263A6F2870}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{920A765E-79B1-445D-BCF3-887053DC7014}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{2D1EC18C-C1F1-4FAB-B3D0-11B6F788A0E6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{4508CD2C-65AB-41DE-8D4B-A269FEBFF070}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{0CD832B0-DC92-4EE2-9414-5A4817FF524D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{C442500D-4E99-4BE4-98D0-36E3827FBD92}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{9E8A11AE-C681-4BC4-96CF-6CC0E23CE7E7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{9520D5F4-4008-4B80-BE47-5F99FFA8E6F8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{7BFD12A6-A32F-4D22-8D64-2D9F3B9665F9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{03199522-D37E-4CD6-9629-0983330571D4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8274,7 +8274,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2B73CB-E665-4B37-9E52-9F9BAC742D1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED1D7961-AD22-4552-AFD2-587B5EA622CB}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9439,18 +9439,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B9E9C0FB-B1B2-4AD8-A0FC-649CFCF1C325}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B5362E27-F861-47D1-AB56-3FDED6D52304}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{6C013587-F64E-4A4F-82F3-E0D956375AC0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{49BF3454-4C19-4F66-82BB-50C16443939C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{FF609ACB-01B9-4B27-916D-7E6458C7C476}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{41A4E93A-69A2-4898-9D5B-EBCA2AB597A2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{EEAFEFCC-54CB-4AE5-8F2C-94C664F6E349}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{499A5408-C879-45E0-B328-DF11EADF07FE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{5830AABD-53B6-41CC-B8B6-E0C0EE035BDE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{7F9E1EBC-F5DF-406C-91CD-A0621CEEB261}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D075B3EC-0028-46B2-93A9-97C39A43C422}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{DF6BA3A8-37AA-4753-8B30-9B18AEB451E2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D06C55E5-9BF1-469C-9E94-78324247A497}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4A7438C6-EDAA-48C9-9833-C045CF23E01C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{7E5548E8-C493-40F3-B254-3C1224C58DE2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D7078BFB-A7F1-44EA-97BA-4CAD08247BF1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{5384B0CB-8107-4AD1-BE63-6ED64AB5AF08}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E3DE59CC-9409-4AEA-BE77-9B1AEDBEF2D3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B63A0D2C-1EE6-473E-933E-E45ECF6E1460}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{EE4ABBC4-D1B9-4518-A5A6-7F32D1308287}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E48CDA99-8850-42B2-BDE8-DF89A231A488}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{107124E9-2F16-4C1C-9B54-F4F770419B52}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{0ECA16E9-AF9B-41F2-9ED0-AC43E843EEE1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{65F7F38B-A45B-4407-94FF-0343BEB2E775}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9463,7 +9463,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1083C3A-2AC1-46DB-9C52-505678DDDE3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD71D66-84B6-4FC9-88D2-A3FF1854F6D9}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10620,18 +10620,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B92D58FA-D5C0-4E2B-9C42-2D7385755DFB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{793284FD-82D4-4D9A-8545-99A4362CBA18}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{8B6150DF-3557-4BF6-84C5-18003DB0457B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D651C381-9E6C-4678-B554-7F5E81CEB4F9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{71253AC4-AE40-4F1B-97F7-1032300E46E7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{948ADFC8-2DE0-478F-A885-F41A37762CC6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{CA012595-06A5-4E0E-AFE1-C5CFDBCE1515}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{1302233B-DAB1-45E5-AA0B-CC5E47F7AB66}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{9806305F-3A6A-4D94-ACB0-20306497697A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{DE9E12C0-77C8-4CCD-8A4E-5BA5335C1304}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{2CB2126C-CCA2-42E8-85A2-CD2DCC77ECD6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5FC97161-10FE-447A-9394-BAED7D54074F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{00FC0616-FA0A-4504-AF42-0962E6F2A172}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{082B0166-E0B5-47B5-AD99-13A5F71FB212}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{C876DEF4-36E5-4EA6-8056-7273C6921002}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{1B08CAFF-A34B-4D8A-8248-EB06AD76F688}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{684250B6-14A4-41B5-B2B0-D2CAA08449F8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{1026B2B4-D618-4B00-9683-E16F88475462}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{41EA74BF-B0F8-4B8A-9054-D5B5E8ACC10E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{F254F1E9-67B8-4AC5-9ABD-852792B9E66F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{A4712ABF-F41C-4A91-9F1A-A625F61CE107}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{DCAD2DF9-00E4-448E-9319-3214E54F5EE9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{506494C7-9FE6-48CF-A165-7ED518591148}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{47E48636-B28A-43F2-B7E6-9DB62FB3EF67}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10644,7 +10644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F0F937-CFFC-4E47-8ABC-4FFBBF257FFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8A64C8-BB40-407C-8DDF-0CC91B00AE52}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11799,18 +11799,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{2036EB1E-9C7C-4D35-97A0-57B95DEFC86D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E9CDC7C2-CBC3-4B75-AE87-4C45612054B5}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{4A33F77F-7DA6-4C2F-8D2B-58697FB94EEF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{53ED31A7-B464-4903-B2FA-9A8CB155F0DC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{31974225-BD43-4279-A350-0CC53145D2B2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{0ED68CFC-F47B-4651-BBDD-DC2D7F563629}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{CCBC5D8F-7D53-4051-812F-0611D88B69A5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{B84505C9-B1A9-4D07-826B-40DBED49DD6A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{F3CE5234-2156-41CC-A7A1-FC65690828A7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{79D4560F-A12A-43B2-A785-4A84431FD514}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B76A242E-6F89-490E-B541-C2AA9A40CA3B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{240AE936-EB1E-465F-9D92-C58E8D21F1A3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{130B11BF-577A-4DE3-9725-E4DC02693A8E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{0F2CDCCB-310A-4F19-A74E-BE5C80014BE1}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{D09313D9-A325-4599-9D6C-99EAF2976A64}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{13072CD3-AA22-419C-BBB5-2D9E3DD8B4F4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{EA8DBDDD-BA74-429B-B072-09BCD756DFC2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{C32D929A-D9D6-4936-BF08-0814EDBE1D6A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D027FF6B-1F87-434F-80E7-C1DD20FF8246}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{EFBB366C-B0B1-4A32-8BCE-5FE279BA810B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{6D5F1435-21D1-45B0-9674-288B0009CF27}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{28435473-718E-4224-8EA1-BBE73DA742CC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{78BBA9FF-1278-436D-8FC1-8A4C175E491B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{6AFE1206-6650-4A2F-9F6A-3A665DE9C22B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11823,7 +11823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A323B770-CC37-46BE-AD45-E1D0B94BA356}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D8DB87D-5C12-4F8B-910E-5B6383E1A075}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12976,18 +12976,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{7391FC01-A9C9-480D-B5A3-636903FF439B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{5E33389A-EC34-4316-9123-0CF68F0D8776}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{6BD72289-185A-44BC-B3F3-E88DE09D11D6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{9A9BFDCC-A5D5-4D25-8874-1D6EF01A7BB2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{8C428312-3DF0-45A5-A514-30D3DEA53124}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{995BABF8-367A-47DC-87C9-32DC596A6779}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C28541F8-7A55-4952-A32A-502FBE82E0C1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{4B0BF63C-988D-44DB-A2DA-E072A758BD58}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{53858EF2-2887-48A3-8D75-F8ABA509DECD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{9A835F8E-C4C7-4812-A0AA-A9FAB931F826}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{CA16527A-EA08-42AF-AF78-7EE2E9B153D1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{92B94A0E-07F3-4A8C-BA43-000A1AC788B8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{0EEB3929-45AB-49A8-BEBC-622EEDCC6516}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{8BEA8038-4720-4A90-8E00-AAF7506340DD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{E788A956-225B-4C1B-9268-2FF77E4B8ECD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{DBE53B94-6B91-4530-AE20-62F40C9A4744}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{48BF4F47-F393-4F4C-8B34-1943DDDF5E0D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{242C80F0-7404-4165-A0A1-6B9B3EFA6B3F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D4196732-6FBA-4D64-9997-FC0CB77197A4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D0FAC1CB-50C2-4E24-A37D-870F6A24EBE6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{63547D5B-7B88-48A4-815E-833D8B061D85}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D9F4175D-804F-49BD-B388-A18D5CCC9A5C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{516712EB-E481-4728-9EF4-9B3EB33DAC30}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{325306AB-6A26-4BB4-9E79-493A427920F9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13000,7 +13000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C9A70E-9D8D-4D50-A40C-D0067CD0A61D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E12A389-1AB3-400E-A47D-56B4676060C2}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14151,18 +14151,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{24D4E818-0F82-49AC-839C-CDA3678E1E0A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{33C3C0C8-0043-407B-8E72-03A25E4AD0C7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{90D9FB52-31D3-4325-B52A-067AC6CA317B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{CCFC4AA4-3D0F-437F-A212-2CF3FE6DB521}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{0E0DA919-12F6-4C67-87FE-537A65CF84CF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{44EDA132-C6F6-4048-8CF3-8AA2B3D4CCF9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{BF78816E-ED77-4589-8C1D-B9469B7C98F9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{7DB92A04-4800-4A7A-BB94-DA700330C4D6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B3D56D16-ADA9-4354-948C-A1C60D1A255A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{3BCFE61A-4D09-4581-9358-7B9F93983D1F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B5C19CFC-3AB2-4688-A621-9468FA68B500}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{0D12FA8C-4D71-4466-BC52-12D15714AC74}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{9ACEB40F-6C1B-457E-B08C-5618FB77C031}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{1B5FF67A-22B6-4235-B2EB-BF0E39CDB717}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{14558BAF-0F36-4C8C-9A0E-BDF88FEA5B0D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{F67E0571-D6BB-40CB-AA71-D56CC369F006}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{99ABDC85-E456-4DB5-AC3E-C9EE2BC62E94}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{FBB2CDC5-620E-4BD4-AB38-D4F23F34CE04}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{F9B505C4-F969-4939-ABCF-9E355A92C1DC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{2E74D5C6-7134-4C8F-B946-70E852DE0164}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{AD8A91B8-0D32-424B-BEAD-7730E7AD57F3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C44CCAC9-B88A-44AE-AADA-F50B71502154}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{4214DFCE-6983-4456-89BF-363DC902832D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F432C495-667D-49F1-96BE-6F0D0BEDCE04}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14175,7 +14175,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42B075F-058E-4797-B3EA-3C54F642D7F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08B9E865-8640-422C-B87F-E269F27268FC}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15322,18 +15322,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{DB8C91A6-0C55-4112-95ED-CA86965AD1A4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{8EC47775-0F5F-4CA4-AFE3-FF7EE6267E2F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{62817F87-BED8-40E3-ACC0-DAAD23BEB644}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{5B472E8D-AFB1-444E-88B1-75D7680E9468}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{7E66AC1E-94A0-4938-957C-9982AF7EE9E1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{820CB1C7-5810-462B-86ED-51FBD589F204}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B15E59DF-0309-4078-A837-A37F4B43CEA7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{40375DF6-89D1-4DFB-90C1-3D4F4DE9AEC1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{60DDB3E8-3389-491B-AE6F-831B82DDF407}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C6438DD7-88E3-4B08-837E-6AAAA23EAF60}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{48F70778-D94C-47BB-821F-23AFFFDF39C4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{D3580B39-F41C-42AD-9D95-213A81A20FED}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{891858B5-37A7-41E0-AB54-7335D1473F88}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{2826C253-E077-437D-AAB4-192DD14A2FEC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{6A85961C-A0C2-413A-8C9F-B8F560342483}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{9A02009A-7C8B-4BC4-99BF-BCAFA0C2CA0C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{BED40875-7801-43F9-8170-7CF84ED66C7E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{99833EAA-A6F3-45BF-BE5F-9A3C0C10B3BA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{35F63018-1AFA-45DB-B11E-69EB202C53D1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{9030F8CD-F8DA-4EEC-B934-2AA411617F9A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{A3FCD910-AE7D-4877-8760-D922020AA188}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{10E59231-55DD-4709-826F-24139E7B9F67}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{4D1A9655-7016-4BEC-9D87-F918305509C9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{B25B319F-0678-42AD-A469-730C128934CA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
